--- a/04_USMA_Data_Growth_qPCR_Infection/Figure2/Data_2_UMAG_11067_qPCR.xlsx
+++ b/04_USMA_Data_Growth_qPCR_Infection/Figure2/Data_2_UMAG_11067_qPCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SilverStone\Documents\PaperToMBE\GitLab_Repository\06_USMA_ExpEvol_Data\F05_ExpEvol_Resistance_Chr9_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SilverStone\Dropbox\ShraredWithJorge\Paper_manuscript\20231027_PaperToInternationalMicrobiology\USMA_H2O2_Adaptation\04_USMA_Data_Growth_qPCR_Infection\Figure2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A612F-2A83-43FE-B603-2F9537B7796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5DA3F-F508-47A2-A696-0BC0B6DE5199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06FAAF3D-9828-4322-93D7-7CC4AAE6A5C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{06FAAF3D-9828-4322-93D7-7CC4AAE6A5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ct_Data" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="31">
   <si>
     <t>SG200</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>10 mM</t>
-  </si>
-  <si>
-    <t>T20.LB.1</t>
-  </si>
-  <si>
-    <t>T20.LC.1</t>
   </si>
   <si>
     <t>Strain</t>
@@ -178,6 +172,9 @@
   <si>
     <t>Efficiency values</t>
   </si>
+  <si>
+    <t>UmH2O2-R</t>
+  </si>
 </sst>
 </file>
 
@@ -186,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,16 +230,30 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -268,19 +279,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +376,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1640,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650F82EA-9E2D-46C1-A58D-886EB2A4543C}">
-  <dimension ref="B1:U26"/>
+  <dimension ref="B1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1657,19 +1759,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="L1" s="13" t="s">
-        <v>31</v>
+      <c r="L1" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:21">
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>17</v>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="L2">
         <v>1.86</v>
@@ -1677,116 +1779,116 @@
     </row>
     <row r="3" spans="2:21">
       <c r="I3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="L3">
         <v>2.11</v>
       </c>
     </row>
     <row r="4" spans="2:21">
-      <c r="K4" s="9"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:21">
       <c r="I5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:21">
       <c r="I6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:21">
       <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="O8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="S8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="15" t="s">
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>25.405757904052734</v>
+      </c>
+      <c r="G9" s="4">
+        <v>26.233787536621094</v>
+      </c>
+      <c r="H9" s="5">
+        <v>26.33000373840332</v>
+      </c>
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="O8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="S8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5">
-        <v>25.405757904052734</v>
-      </c>
-      <c r="G9" s="5">
-        <v>26.233787536621094</v>
-      </c>
-      <c r="H9" s="6">
-        <v>26.33000373840332</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" t="s">
@@ -1799,30 +1901,30 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="6">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5">
         <v>24.947404861450195</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>24.572443008422852</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>24.543596267700195</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="10">
+        <v>25</v>
+      </c>
+      <c r="K10" s="9">
         <f>(F9-F10)</f>
         <v>0.45835304260253906</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f>(G9-G10)</f>
         <v>1.6613445281982422</v>
       </c>
-      <c r="M10" s="10">
-        <f t="shared" ref="L10:M10" si="0">(H9-H10)</f>
+      <c r="M10" s="9">
+        <f t="shared" ref="M10" si="0">(H9-H10)</f>
         <v>1.786407470703125</v>
       </c>
       <c r="O10" s="1">
@@ -1861,30 +1963,30 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5">
         <v>25.222822189331055</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>25.097610473632813</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>24.844409942626953</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="10">
+        <v>25</v>
+      </c>
+      <c r="K11" s="9">
         <f>(F9-F11)</f>
         <v>0.18293571472167969</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f>(G9-G11)</f>
         <v>1.1361770629882813</v>
       </c>
-      <c r="M11" s="10">
-        <f t="shared" ref="L11:M11" si="3">(H9-H11)</f>
+      <c r="M11" s="9">
+        <f t="shared" ref="M11" si="3">(H9-H11)</f>
         <v>1.4855937957763672</v>
       </c>
       <c r="O11" s="1">
@@ -1917,25 +2019,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5">
         <v>27.381303787231445</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>28.931257247924805</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>28.404277801513672</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:21">
@@ -1943,35 +2045,35 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5">
         <v>26.084392547607422</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>26.073894500732422</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>25.756027221679688</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="10">
+        <v>25</v>
+      </c>
+      <c r="K13" s="9">
         <f>F12-F13</f>
         <v>1.2969112396240234</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f>G12-G13</f>
         <v>2.8573627471923828</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <f>H12-H13</f>
         <v>2.6482505798339844</v>
       </c>
@@ -1989,90 +2091,90 @@
       </c>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7">
         <v>25.942911148071289</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>25.751298904418945</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>25.985239028930664</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="11">
+      <c r="I14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10">
         <f>F12-F14</f>
         <v>1.4383926391601563</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <f>G12-G14</f>
         <v>3.1799583435058594</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <f>H12-H14</f>
         <v>2.4190387725830078</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="12">
+      <c r="N14" s="6"/>
+      <c r="O14" s="11">
         <f>($L$3)^(K14)</f>
         <v>2.9271534950456832</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <f t="shared" si="5"/>
         <v>10.744957433929892</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <f t="shared" si="5"/>
         <v>6.0876802388426743</v>
       </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
+      <c r="E15" t="s">
+        <v>11</v>
       </c>
       <c r="F15" s="5">
-        <v>28.429967880249023</v>
+        <v>28.960567474365234</v>
       </c>
       <c r="G15" s="5">
-        <v>27.437028884887695</v>
+        <v>28.840442657470703</v>
       </c>
       <c r="H15" s="5">
-        <v>28.334768295288086</v>
+        <v>28.494527816772461</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:21">
       <c r="B16" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2081,60 +2183,60 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6">
-        <v>23.755502700805664</v>
-      </c>
-      <c r="G16" s="6">
-        <v>23.28973388671875</v>
-      </c>
-      <c r="H16" s="6">
-        <v>23.350984573364258</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="5">
+        <v>20.931880950927734</v>
+      </c>
+      <c r="G16" s="5">
+        <v>20.467685699462891</v>
+      </c>
+      <c r="H16" s="5">
+        <v>21.152135848999023</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="10">
+        <v>25</v>
+      </c>
+      <c r="K16" s="9">
         <f>F15-F16</f>
-        <v>4.6744651794433594</v>
-      </c>
-      <c r="L16" s="10">
+        <v>8.0286865234375</v>
+      </c>
+      <c r="L16" s="9">
         <f t="shared" ref="L16:M16" si="6">G15-G16</f>
-        <v>4.1472949981689453</v>
-      </c>
-      <c r="M16" s="10">
+        <v>8.3727569580078125</v>
+      </c>
+      <c r="M16" s="9">
         <f t="shared" si="6"/>
-        <v>4.9837837219238281</v>
+        <v>7.3423919677734375</v>
       </c>
       <c r="O16" s="1">
         <f>($L$2)^(K16)</f>
-        <v>18.189839756305652</v>
+        <v>145.82599323511201</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ref="P16:Q17" si="7">($L$2)^(L16)</f>
-        <v>13.11443803697556</v>
+        <v>180.53706547369291</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="7"/>
-        <v>22.03911871402158</v>
+        <v>95.251029168007136</v>
       </c>
       <c r="S16" s="1">
         <f>(O16)/O19</f>
-        <v>0.80168545956680559</v>
+        <v>0.69197902632677344</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:U17" si="8">(P16)/P19</f>
-        <v>0.80879289394251375</v>
+        <v>0.31789246048250541</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="8"/>
-        <v>0.87850937529369311</v>
+        <v>0.6636267321575835</v>
       </c>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -2143,470 +2245,188 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="6">
-        <v>21.772497177124023</v>
-      </c>
-      <c r="G17" s="6">
-        <v>21.538528442382798</v>
-      </c>
-      <c r="H17" s="6">
-        <v>21.434465408325099</v>
+        <v>13</v>
+      </c>
+      <c r="F17" s="5">
+        <v>18.752973556518555</v>
+      </c>
+      <c r="G17" s="5">
+        <v>18.6521606445312</v>
+      </c>
+      <c r="H17" s="5">
+        <v>18.582183837890625</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="10">
+        <v>25</v>
+      </c>
+      <c r="K17" s="9">
         <f>F15-F17</f>
-        <v>6.657470703125</v>
-      </c>
-      <c r="L17" s="10">
-        <f t="shared" ref="L17:M17" si="9">G15-G17</f>
-        <v>5.898500442504897</v>
-      </c>
-      <c r="M17" s="10">
-        <f t="shared" si="9"/>
-        <v>6.9003028869629865</v>
+        <v>10.20759391784668</v>
+      </c>
+      <c r="L17" s="9">
+        <f>G15-G17</f>
+        <v>10.188282012939503</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" ref="M17" si="9">H15-H17</f>
+        <v>9.9123439788818359</v>
       </c>
       <c r="O17" s="1">
         <f>($L$2)^(K17)</f>
-        <v>62.269378373758855</v>
+        <v>563.73979105608078</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="7"/>
-        <v>38.879638723370874</v>
+        <f>($L$2)^(L17)</f>
+        <v>557.02396689751936</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="7"/>
-        <v>72.397062823382498</v>
+        <v>469.35884862379618</v>
       </c>
       <c r="S17" s="1">
         <f>(O17)/O20</f>
-        <v>1.0823991568793845</v>
+        <v>2.9142598148612993</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="8"/>
-        <v>0.77530208067752671</v>
+        <f>(P17)/P20</f>
+        <v>2.254457137353084</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="8"/>
-        <v>1.3447629855207133</v>
+        <v>2.0979168123220462</v>
       </c>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6">
-        <v>31.042348861694336</v>
-      </c>
-      <c r="G18" s="6">
-        <v>30.451370239257813</v>
-      </c>
-      <c r="H18" s="6">
-        <v>30.955747604370117</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="5">
+        <v>33.722785949707031</v>
+      </c>
+      <c r="G18" s="5">
+        <v>34.774726867675781</v>
+      </c>
+      <c r="H18" s="5">
+        <v>34.022006988525391</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="6">
-        <v>26.861349105834961</v>
-      </c>
-      <c r="G19" s="6">
-        <v>26.720325469970703</v>
-      </c>
-      <c r="H19" s="6">
-        <v>26.640226364135742</v>
+        <v>13</v>
+      </c>
+      <c r="F19" s="5">
+        <v>26.556989669799805</v>
+      </c>
+      <c r="G19" s="5">
+        <v>26.281248092651367</v>
+      </c>
+      <c r="H19" s="5">
+        <v>27.3705654144287</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="10">
+        <v>25</v>
+      </c>
+      <c r="K19" s="9">
         <f>F18-F19</f>
-        <v>4.180999755859375</v>
-      </c>
-      <c r="L19" s="10">
+        <v>7.1657962799072266</v>
+      </c>
+      <c r="L19" s="9">
         <f t="shared" ref="L19:M19" si="10">G18-G19</f>
-        <v>3.7310447692871094</v>
-      </c>
-      <c r="M19" s="10">
+        <v>8.4934787750244141</v>
+      </c>
+      <c r="M19" s="9">
         <f t="shared" si="10"/>
-        <v>4.315521240234375</v>
+        <v>6.6514415740966903</v>
       </c>
       <c r="O19" s="1">
         <f>($L$3)^(K19)</f>
-        <v>22.689496908344346</v>
+        <v>210.73759129550345</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" ref="P19:Q20" si="11">($L$3)^(L19)</f>
-        <v>16.214828462510813</v>
+        <f t="shared" ref="P19:Q19" si="11">($L$3)^(L19)</f>
+        <v>567.91867664828874</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="11"/>
-        <v>25.086947656823487</v>
+        <v>143.53103115410519</v>
       </c>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8">
-        <v>25.615329742431641</v>
-      </c>
-      <c r="G20" s="8">
-        <v>25.208251953125</v>
-      </c>
-      <c r="H20" s="8">
-        <v>25.617576599121094</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="11">
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7">
+        <v>26.67167854309082</v>
+      </c>
+      <c r="G20" s="7">
+        <v>27.395875930786133</v>
+      </c>
+      <c r="H20" s="7">
+        <v>26.7761116027832</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="10">
         <f>F18-F20</f>
-        <v>5.4270191192626953</v>
-      </c>
-      <c r="L20" s="11">
+        <v>7.0511074066162109</v>
+      </c>
+      <c r="L20" s="10">
         <f t="shared" ref="L20:M20" si="12">G18-G20</f>
-        <v>5.2431182861328125</v>
-      </c>
-      <c r="M20" s="11">
+        <v>7.3788509368896484</v>
+      </c>
+      <c r="M20" s="10">
         <f t="shared" si="12"/>
-        <v>5.3381710052490234</v>
-      </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="12">
+        <v>7.2458953857421911</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="11">
         <f>($L$3)^(K20)</f>
-        <v>57.529034439831648</v>
-      </c>
-      <c r="P20" s="12">
-        <f t="shared" si="11"/>
-        <v>50.147729114043457</v>
-      </c>
-      <c r="Q20" s="12">
+        <v>193.44184351075484</v>
+      </c>
+      <c r="P20" s="11">
+        <f>($L$3)^(L20)</f>
+        <v>247.07676081680168</v>
+      </c>
+      <c r="Q20" s="11">
         <f>($L$3)^(M20)</f>
-        <v>53.836299483919262</v>
-      </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6">
-        <v>28.960567474365234</v>
-      </c>
-      <c r="G21" s="6">
-        <v>28.840442657470703</v>
-      </c>
-      <c r="H21" s="6">
-        <v>28.494527816772461</v>
-      </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6">
-        <v>20.931880950927734</v>
-      </c>
-      <c r="G22" s="6">
-        <v>20.467685699462891</v>
-      </c>
-      <c r="H22" s="6">
-        <v>21.152135848999023</v>
-      </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="10">
-        <f>F21-F22</f>
-        <v>8.0286865234375</v>
-      </c>
-      <c r="L22" s="10">
-        <f t="shared" ref="L22:M22" si="13">G21-G22</f>
-        <v>8.3727569580078125</v>
-      </c>
-      <c r="M22" s="10">
-        <f t="shared" si="13"/>
-        <v>7.3423919677734375</v>
-      </c>
-      <c r="O22" s="1">
-        <f>($L$2)^(K22)</f>
-        <v>145.82599323511201</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" ref="P22:Q23" si="14">($L$2)^(L22)</f>
-        <v>180.53706547369291</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="14"/>
-        <v>95.251029168007136</v>
-      </c>
-      <c r="S22" s="1">
-        <f>(O22)/O25</f>
-        <v>0.69197902632677344</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" ref="T22:U23" si="15">(P22)/P25</f>
-        <v>0.31789246048250541</v>
-      </c>
-      <c r="U22" s="1">
-        <f t="shared" si="15"/>
-        <v>0.6636267321575835</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="6">
-        <v>18.752973556518555</v>
-      </c>
-      <c r="G23" s="6">
-        <v>18.6521606445312</v>
-      </c>
-      <c r="H23" s="6">
-        <v>18.582183837890625</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="10">
-        <f>F21-F23</f>
-        <v>10.20759391784668</v>
-      </c>
-      <c r="L23" s="10">
-        <f>G21-G23</f>
-        <v>10.188282012939503</v>
-      </c>
-      <c r="M23" s="10">
-        <f t="shared" ref="M23" si="16">H21-H23</f>
-        <v>9.9123439788818359</v>
-      </c>
-      <c r="O23" s="1">
-        <f>($L$2)^(K23)</f>
-        <v>563.73979105608078</v>
-      </c>
-      <c r="P23" s="1">
-        <f>($L$2)^(L23)</f>
-        <v>557.02396689751936</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="14"/>
-        <v>469.35884862379618</v>
-      </c>
-      <c r="S23" s="1">
-        <f>(O23)/O26</f>
-        <v>2.9142598148612993</v>
-      </c>
-      <c r="T23" s="1">
-        <f>(P23)/P26</f>
-        <v>2.254457137353084</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="shared" si="15"/>
-        <v>2.0979168123220462</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6">
-        <v>33.722785949707031</v>
-      </c>
-      <c r="G24" s="6">
-        <v>34.774726867675781</v>
-      </c>
-      <c r="H24" s="6">
-        <v>34.022006988525391</v>
-      </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="6">
-        <v>26.556989669799805</v>
-      </c>
-      <c r="G25" s="6">
-        <v>26.281248092651367</v>
-      </c>
-      <c r="H25" s="6">
-        <v>27.3705654144287</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="10">
-        <f>F24-F25</f>
-        <v>7.1657962799072266</v>
-      </c>
-      <c r="L25" s="10">
-        <f t="shared" ref="L25:M25" si="17">G24-G25</f>
-        <v>8.4934787750244141</v>
-      </c>
-      <c r="M25" s="10">
-        <f t="shared" si="17"/>
-        <v>6.6514415740966903</v>
-      </c>
-      <c r="O25" s="1">
-        <f>($L$3)^(K25)</f>
-        <v>210.73759129550345</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" ref="P25:Q25" si="18">($L$3)^(L25)</f>
-        <v>567.91867664828874</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="18"/>
-        <v>143.53103115410519</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="B26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="8">
-        <v>26.67167854309082</v>
-      </c>
-      <c r="G26" s="8">
-        <v>27.395875930786133</v>
-      </c>
-      <c r="H26" s="8">
-        <v>26.7761116027832</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="11">
-        <f>F24-F26</f>
-        <v>7.0511074066162109</v>
-      </c>
-      <c r="L26" s="11">
-        <f t="shared" ref="L26:M26" si="19">G24-G26</f>
-        <v>7.3788509368896484</v>
-      </c>
-      <c r="M26" s="11">
-        <f t="shared" si="19"/>
-        <v>7.2458953857421911</v>
-      </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="12">
-        <f>($L$3)^(K26)</f>
-        <v>193.44184351075484</v>
-      </c>
-      <c r="P26" s="12">
-        <f>($L$3)^(L26)</f>
-        <v>247.07676081680168</v>
-      </c>
-      <c r="Q26" s="12">
-        <f>($L$3)^(M26)</f>
         <v>223.72614865710224</v>
       </c>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2622,45 +2442,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCBFA41-2782-4389-9727-ED1C495D3A26}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="E2" s="18">
         <v>0.50462239086159444</v>
       </c>
       <c r="F2" s="1"/>
@@ -2668,291 +2488,189 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="22">
         <v>0.33201770847131568</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="24">
         <v>0.41944858797202</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="25">
         <v>0.38269963354794673</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="26">
         <v>0.1883691274272466</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="27">
         <v>0.41298561545901324</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.80168545956680559</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.69197902632677344</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.80879289394251375</v>
+      <c r="D9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.31789246048250541</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.87850937529369311</v>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.6636267321575835</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.0823991568793845</v>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2.9142598148612993</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.77530208067752671</v>
+      <c r="D12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="22">
+        <v>2.254457137353084</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.3447629855207133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.69197902632677344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.31789246048250541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.6636267321575835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.9142598148612993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2.254457137353084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="24">
         <v>2.0979168123220462</v>
       </c>
     </row>
